--- a/raw_data/Uebernachtungen_Kiel_Mai-August_2019_new.xlsx
+++ b/raw_data/Uebernachtungen_Kiel_Mai-August_2019_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nn\Documents\R\Team-3\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{181EB6BB-9546-4CBF-9746-05FD8A2E34BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13F5E7B8-2EEF-4438-BF97-6D3FB432E4DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1739E11D-4AD0-40A1-86FB-F0E3C7B575CF}"/>
   </bookViews>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6A9080-0582-437F-AFCA-4479C3693C48}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
